--- a/raw/Результати мінор.xlsx
+++ b/raw/Результати мінор.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t xml:space="preserve">Команда </t>
   </si>
@@ -34,9 +34,6 @@
     <t>Тур 5</t>
   </si>
   <si>
-    <t>П</t>
-  </si>
-  <si>
     <t>Сума</t>
   </si>
   <si>
@@ -172,7 +169,33 @@
     <t>Івано-Франківськ</t>
   </si>
   <si>
-    <t>Андрюша</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Андрюша (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="14"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Легіон</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Рівне</t>
@@ -221,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,6 +291,12 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -282,12 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -315,10 +344,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -327,13 +356,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -342,28 +371,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -571,32 +585,32 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -605,13 +619,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -620,16 +634,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -638,10 +649,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,9 +669,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="ffff0000"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -862,17 +871,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -899,10 +908,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1141,12 +1150,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1423,7 +1432,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1450,10 +1459,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1695,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1703,9 +1712,9 @@
   <cols>
     <col min="1" max="1" width="40.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.1719" style="1" customWidth="1"/>
-    <col min="3" max="8" width="8.67188" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="7" width="8.67188" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -1730,1217 +1739,1170 @@
       <c r="G1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="3">
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="19.8" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="19.8" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11">
+        <v>49.01</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="19.8" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
         <v>12</v>
       </c>
-      <c r="E2" s="10">
-        <v>10</v>
-      </c>
-      <c r="F2" s="10">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="12">
-        <v>49</v>
-      </c>
-      <c r="J2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="19.8" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14">
-        <v>8</v>
-      </c>
-      <c r="D3" s="15">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15">
-        <v>8</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="E3" s="14">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14">
         <v>9</v>
       </c>
       <c r="G3" s="15">
         <v>12</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="12">
+      <c r="H3" s="11">
         <v>49</v>
       </c>
-      <c r="J3" s="17">
+      <c r="I3" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="19.8" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="C4" s="13">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14">
+        <v>9</v>
+      </c>
+      <c r="G4" s="15">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11">
+        <v>47.01</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="19.8" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="C4" s="14">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15">
-        <v>10</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="B5" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14">
+        <v>8</v>
+      </c>
+      <c r="G5" s="15">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11">
+        <v>47</v>
+      </c>
+      <c r="I5" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="19.8" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14">
         <v>9</v>
       </c>
-      <c r="G4" s="15">
-        <v>10</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>47</v>
-      </c>
-      <c r="J4" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="19.8" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15">
-        <v>11</v>
-      </c>
-      <c r="E5" s="15">
-        <v>8</v>
-      </c>
-      <c r="F5" s="15">
-        <v>8</v>
-      </c>
-      <c r="G5" s="15">
-        <v>10</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="12">
-        <v>47</v>
-      </c>
-      <c r="J5" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="19.8" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="F6" s="14">
+        <v>7</v>
+      </c>
+      <c r="G6" s="15">
+        <v>8</v>
+      </c>
+      <c r="H6" s="11">
+        <v>45</v>
+      </c>
+      <c r="I6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="19.8" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15">
-        <v>11</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="B7" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13">
         <v>9</v>
       </c>
-      <c r="F6" s="15">
-        <v>7</v>
-      </c>
-      <c r="G6" s="15">
-        <v>8</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="12">
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14">
+        <v>9</v>
+      </c>
+      <c r="G7" s="15">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11">
         <v>45</v>
       </c>
-      <c r="J6" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="19.8" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="I7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="19.8" customHeight="1">
+      <c r="A8" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B8" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15">
-        <v>9</v>
-      </c>
-      <c r="F7" s="15">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15">
-        <v>8</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="12">
-        <v>45</v>
-      </c>
-      <c r="J7" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="19.8" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="G8" s="15">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11">
+        <v>44</v>
+      </c>
+      <c r="I8" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="19.8" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C8" s="14">
-        <v>10</v>
-      </c>
-      <c r="D8" s="15">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15">
-        <v>8</v>
-      </c>
-      <c r="F8" s="15">
-        <v>9</v>
-      </c>
-      <c r="G8" s="15">
-        <v>7</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="12">
-        <v>44</v>
-      </c>
-      <c r="J8" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="19.8" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="B9" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B9" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C9" s="14">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15">
-        <v>10</v>
-      </c>
-      <c r="E9" s="15">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="C9" s="13">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
         <v>8</v>
       </c>
       <c r="G9" s="15">
         <v>11</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="12">
+      <c r="H9" s="11">
         <v>44</v>
       </c>
-      <c r="J9" s="17">
+      <c r="I9" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="19.8" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>7</v>
+      </c>
+      <c r="G10" s="15">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11">
+        <v>42</v>
+      </c>
+      <c r="I10" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="19.8" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="C10" s="14">
+      <c r="B11" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13">
         <v>9</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11">
+        <v>42</v>
+      </c>
+      <c r="I11" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="19.8" customHeight="1">
+      <c r="A12" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13">
+        <v>7</v>
+      </c>
+      <c r="D12" s="14">
         <v>11</v>
       </c>
-      <c r="E10" s="15">
-        <v>5</v>
-      </c>
-      <c r="F10" s="15">
-        <v>7</v>
-      </c>
-      <c r="G10" s="15">
-        <v>10</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="12">
-        <v>42</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="E12" s="14">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11">
+        <v>40</v>
+      </c>
+      <c r="I12" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="19.8" customHeight="1">
+      <c r="A13" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" ht="19.8" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="D13" s="14">
         <v>9</v>
       </c>
-      <c r="D11" s="15">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15">
-        <v>7</v>
-      </c>
-      <c r="F11" s="15">
-        <v>8</v>
-      </c>
-      <c r="G11" s="15">
-        <v>8</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12">
-        <v>42</v>
-      </c>
-      <c r="J11" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="19.8" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C12" s="14">
-        <v>7</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="E13" s="14">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14">
+        <v>6</v>
+      </c>
+      <c r="G13" s="15">
+        <v>8</v>
+      </c>
+      <c r="H13" s="11">
+        <v>40</v>
+      </c>
+      <c r="I13" s="16">
         <v>11</v>
       </c>
-      <c r="E12" s="15">
-        <v>8</v>
-      </c>
-      <c r="F12" s="15">
-        <v>7</v>
-      </c>
-      <c r="G12" s="15">
-        <v>7</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12">
-        <v>40</v>
-      </c>
-      <c r="J12" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="19.8" customHeight="1">
-      <c r="A13" t="s" s="7">
+    </row>
+    <row r="14" ht="19.8" customHeight="1">
+      <c r="A14" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="B13" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C13" s="14">
-        <v>9</v>
-      </c>
-      <c r="D13" s="15">
-        <v>9</v>
-      </c>
-      <c r="E13" s="15">
-        <v>8</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="B14" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C14" s="13">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11">
+        <v>39</v>
+      </c>
+      <c r="I14" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="19.8" customHeight="1">
+      <c r="A15" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13">
         <v>6</v>
       </c>
-      <c r="G13" s="15">
-        <v>8</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12">
-        <v>40</v>
-      </c>
-      <c r="J13" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="19.8" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C14" s="14">
-        <v>7</v>
-      </c>
-      <c r="D14" s="15">
-        <v>12</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15">
-        <v>10</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="12">
-        <v>39</v>
-      </c>
-      <c r="J14" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" ht="19.8" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14">
-        <v>6</v>
-      </c>
-      <c r="D15" s="15">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15">
-        <v>8</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="D15" s="14">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>8</v>
+      </c>
+      <c r="F15" s="14">
         <v>9</v>
       </c>
       <c r="G15" s="15">
         <v>6</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="12">
+      <c r="H15" s="11">
         <v>39</v>
       </c>
-      <c r="J15" s="17">
+      <c r="I15" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="19.8" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13">
+        <v>9</v>
+      </c>
+      <c r="D16" s="14">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14">
+        <v>8</v>
+      </c>
+      <c r="F16" s="14">
+        <v>7</v>
+      </c>
+      <c r="G16" s="15">
+        <v>7</v>
+      </c>
+      <c r="H16" s="11">
+        <v>39</v>
+      </c>
+      <c r="I16" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="19.8" customHeight="1">
+      <c r="A17" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="B16" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14">
-        <v>9</v>
-      </c>
-      <c r="D16" s="15">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15">
-        <v>8</v>
-      </c>
-      <c r="F16" s="15">
-        <v>7</v>
-      </c>
-      <c r="G16" s="15">
-        <v>7</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="12">
-        <v>39</v>
-      </c>
-      <c r="J16" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="19.8" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="B17" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="C17" s="13">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14">
+        <v>7</v>
+      </c>
+      <c r="G17" s="15">
+        <v>8</v>
+      </c>
+      <c r="H17" s="11">
+        <v>38</v>
+      </c>
+      <c r="I17" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="19.8" customHeight="1">
+      <c r="A18" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="C17" s="14">
-        <v>6</v>
-      </c>
-      <c r="D17" s="15">
-        <v>10</v>
-      </c>
-      <c r="E17" s="15">
-        <v>7</v>
-      </c>
-      <c r="F17" s="15">
-        <v>7</v>
-      </c>
-      <c r="G17" s="15">
-        <v>8</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="12">
-        <v>38</v>
-      </c>
-      <c r="J17" s="17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" ht="19.8" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14">
-        <v>5</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="B18" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14">
         <v>12</v>
       </c>
-      <c r="E18" s="15">
-        <v>8</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="E18" s="14">
+        <v>8</v>
+      </c>
+      <c r="F18" s="14">
         <v>4</v>
       </c>
       <c r="G18" s="15">
         <v>9</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="12">
+      <c r="H18" s="11">
         <v>38</v>
       </c>
-      <c r="J18" s="17">
+      <c r="I18" s="16">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="19.8" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="A19" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13">
         <v>6</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>9</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>6</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>7</v>
       </c>
       <c r="G19" s="15">
         <v>9</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="12">
+      <c r="H19" s="11">
         <v>37</v>
       </c>
-      <c r="J19" s="17">
+      <c r="I19" s="16">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="19.8" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14">
+        <v>7</v>
+      </c>
+      <c r="G20" s="15">
+        <v>8</v>
+      </c>
+      <c r="H20" s="11">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="I20" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="19.8" customHeight="1">
+      <c r="A21" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13">
+        <v>8</v>
+      </c>
+      <c r="D21" s="14">
         <v>9</v>
       </c>
-      <c r="D20" s="15">
-        <v>8</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
-      </c>
-      <c r="F20" s="15">
-        <v>7</v>
-      </c>
-      <c r="G20" s="15">
-        <v>8</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="12">
+      <c r="E21" s="14">
+        <v>7</v>
+      </c>
+      <c r="F21" s="14">
+        <v>6</v>
+      </c>
+      <c r="G21" s="15">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11">
         <v>37</v>
       </c>
-      <c r="J20" s="17">
+      <c r="I21" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="21" ht="19.8" customHeight="1">
-      <c r="A21" t="s" s="7">
+    <row r="22" ht="19.8" customHeight="1">
+      <c r="A22" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="8">
+      <c r="B22" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>7</v>
+      </c>
+      <c r="D22" s="14">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14">
+        <v>8</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15">
+        <v>8</v>
+      </c>
+      <c r="H22" s="11">
+        <v>36</v>
+      </c>
+      <c r="I22" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="19.8" customHeight="1">
+      <c r="A23" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13">
+        <v>8</v>
+      </c>
+      <c r="D23" s="14">
         <v>11</v>
       </c>
-      <c r="C21" s="14">
-        <v>8</v>
-      </c>
-      <c r="D21" s="15">
-        <v>9</v>
-      </c>
-      <c r="E21" s="15">
-        <v>7</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="E23" s="14">
         <v>6</v>
       </c>
-      <c r="G21" s="15">
-        <v>7</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="12">
-        <v>37</v>
-      </c>
-      <c r="J21" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="19.8" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C22" s="14">
-        <v>7</v>
-      </c>
-      <c r="D22" s="15">
-        <v>10</v>
-      </c>
-      <c r="E22" s="15">
-        <v>8</v>
-      </c>
-      <c r="F22" s="15">
-        <v>3</v>
-      </c>
-      <c r="G22" s="15">
-        <v>8</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="12">
+      <c r="F23" s="14">
+        <v>4</v>
+      </c>
+      <c r="G23" s="15">
+        <v>7</v>
+      </c>
+      <c r="H23" s="11">
         <v>36</v>
       </c>
-      <c r="J22" s="17">
+      <c r="I23" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="19.8" customHeight="1">
-      <c r="A23" t="s" s="7">
+    <row r="24" ht="19.8" customHeight="1">
+      <c r="A24" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="B23" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C23" s="14">
-        <v>8</v>
-      </c>
-      <c r="D23" s="15">
-        <v>11</v>
-      </c>
-      <c r="E23" s="15">
-        <v>6</v>
-      </c>
-      <c r="F23" s="15">
-        <v>4</v>
-      </c>
-      <c r="G23" s="15">
-        <v>7</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="12">
-        <v>36</v>
-      </c>
-      <c r="J23" s="17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" ht="19.8" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="B24" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="B24" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C24" s="14">
-        <v>7</v>
-      </c>
-      <c r="D24" s="15">
-        <v>7</v>
-      </c>
-      <c r="E24" s="15">
-        <v>5</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="C24" s="13">
+        <v>7</v>
+      </c>
+      <c r="D24" s="14">
+        <v>7</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="14">
         <v>8</v>
       </c>
       <c r="G24" s="15">
         <v>9</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="12">
+      <c r="H24" s="11">
         <v>36</v>
       </c>
-      <c r="J24" s="17">
+      <c r="I24" s="16">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="19.8" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="B25" t="s" s="8">
+      <c r="C25" s="13">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14">
+        <v>9</v>
+      </c>
+      <c r="E25" s="14">
+        <v>6</v>
+      </c>
+      <c r="F25" s="14">
+        <v>6</v>
+      </c>
+      <c r="G25" s="15">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11">
+        <v>35</v>
+      </c>
+      <c r="I25" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="19.8" customHeight="1">
+      <c r="A26" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="C25" s="14">
-        <v>7</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="B26" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13">
+        <v>10</v>
+      </c>
+      <c r="D26" s="14">
+        <v>12</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4</v>
+      </c>
+      <c r="G26" s="15">
+        <v>5</v>
+      </c>
+      <c r="H26" s="11">
+        <v>34</v>
+      </c>
+      <c r="I26" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="19.8" customHeight="1">
+      <c r="A27" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C27" s="13">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14">
+        <v>12</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="14">
+        <v>5</v>
+      </c>
+      <c r="G27" s="15">
+        <v>8</v>
+      </c>
+      <c r="H27" s="11">
+        <v>34</v>
+      </c>
+      <c r="I27" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="36" customHeight="1">
+      <c r="A28" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C28" s="13">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14">
+        <v>5</v>
+      </c>
+      <c r="F28" s="14">
+        <v>6</v>
+      </c>
+      <c r="G28" s="15">
+        <v>8</v>
+      </c>
+      <c r="H28" s="11">
+        <v>34</v>
+      </c>
+      <c r="I28" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="19.8" customHeight="1">
+      <c r="A29" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13">
+        <v>6</v>
+      </c>
+      <c r="D29" s="14">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14">
+        <v>5</v>
+      </c>
+      <c r="F29" s="14">
+        <v>6</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7</v>
+      </c>
+      <c r="H29" s="11">
+        <v>34</v>
+      </c>
+      <c r="I29" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="19.8" customHeight="1">
+      <c r="A30" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C30" s="13">
+        <v>7</v>
+      </c>
+      <c r="D30" s="14">
         <v>9</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E30" s="14">
         <v>6</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F30" s="14">
+        <v>5</v>
+      </c>
+      <c r="G30" s="15">
+        <v>7</v>
+      </c>
+      <c r="H30" s="11">
+        <v>34</v>
+      </c>
+      <c r="I30" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="19.8" customHeight="1">
+      <c r="A31" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C31" s="13">
+        <v>8</v>
+      </c>
+      <c r="D31" s="14">
+        <v>10</v>
+      </c>
+      <c r="E31" s="14">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14">
+        <v>5</v>
+      </c>
+      <c r="G31" s="15">
+        <v>5</v>
+      </c>
+      <c r="H31" s="11">
+        <v>33</v>
+      </c>
+      <c r="I31" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="19.8" customHeight="1">
+      <c r="A32" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C32" s="13">
         <v>6</v>
       </c>
-      <c r="G25" s="15">
-        <v>7</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="12">
-        <v>35</v>
-      </c>
-      <c r="J25" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" ht="19.8" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C26" s="14">
-        <v>10</v>
-      </c>
-      <c r="D26" s="15">
-        <v>12</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D32" s="14">
+        <v>9</v>
+      </c>
+      <c r="E32" s="14">
+        <v>5</v>
+      </c>
+      <c r="F32" s="14">
+        <v>5</v>
+      </c>
+      <c r="G32" s="15">
+        <v>7</v>
+      </c>
+      <c r="H32" s="11">
+        <v>32</v>
+      </c>
+      <c r="I32" s="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" ht="19.8" customHeight="1">
+      <c r="A33" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C33" s="13">
+        <v>6</v>
+      </c>
+      <c r="D33" s="14">
+        <v>9</v>
+      </c>
+      <c r="E33" s="14">
         <v>3</v>
       </c>
-      <c r="F26" s="15">
-        <v>4</v>
-      </c>
-      <c r="G26" s="15">
-        <v>5</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="12">
-        <v>34</v>
-      </c>
-      <c r="J26" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" ht="19.8" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C27" s="14">
-        <v>4</v>
-      </c>
-      <c r="D27" s="15">
-        <v>12</v>
-      </c>
-      <c r="E27" s="15">
-        <v>5</v>
-      </c>
-      <c r="F27" s="15">
-        <v>5</v>
-      </c>
-      <c r="G27" s="15">
-        <v>8</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="12">
-        <v>34</v>
-      </c>
-      <c r="J27" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" ht="36" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C28" s="14">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15">
-        <v>11</v>
-      </c>
-      <c r="E28" s="15">
-        <v>5</v>
-      </c>
-      <c r="F28" s="15">
-        <v>6</v>
-      </c>
-      <c r="G28" s="15">
-        <v>8</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="12">
-        <v>34</v>
-      </c>
-      <c r="J28" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" ht="19.8" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C29" s="14">
-        <v>6</v>
-      </c>
-      <c r="D29" s="15">
-        <v>10</v>
-      </c>
-      <c r="E29" s="15">
-        <v>5</v>
-      </c>
-      <c r="F29" s="15">
-        <v>6</v>
-      </c>
-      <c r="G29" s="15">
-        <v>7</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="12">
-        <v>34</v>
-      </c>
-      <c r="J29" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" ht="19.8" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C30" s="14">
-        <v>7</v>
-      </c>
-      <c r="D30" s="15">
-        <v>9</v>
-      </c>
-      <c r="E30" s="15">
-        <v>6</v>
-      </c>
-      <c r="F30" s="15">
-        <v>5</v>
-      </c>
-      <c r="G30" s="15">
-        <v>7</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="12">
-        <v>34</v>
-      </c>
-      <c r="J30" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" ht="19.8" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C31" s="14">
-        <v>8</v>
-      </c>
-      <c r="D31" s="15">
-        <v>10</v>
-      </c>
-      <c r="E31" s="15">
-        <v>5</v>
-      </c>
-      <c r="F31" s="15">
-        <v>5</v>
-      </c>
-      <c r="G31" s="15">
-        <v>5</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="12">
-        <v>33</v>
-      </c>
-      <c r="J31" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" ht="19.8" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="C32" s="14">
-        <v>6</v>
-      </c>
-      <c r="D32" s="15">
-        <v>9</v>
-      </c>
-      <c r="E32" s="15">
-        <v>5</v>
-      </c>
-      <c r="F32" s="15">
-        <v>5</v>
-      </c>
-      <c r="G32" s="15">
-        <v>7</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="12">
-        <v>32</v>
-      </c>
-      <c r="J32" s="17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" ht="19.8" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="C33" s="14">
-        <v>6</v>
-      </c>
-      <c r="D33" s="15">
-        <v>9</v>
-      </c>
-      <c r="E33" s="15">
-        <v>3</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <v>6</v>
       </c>
       <c r="G33" s="15">
         <v>6</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="12">
+      <c r="H33" s="11">
         <v>30</v>
       </c>
-      <c r="J33" s="17">
+      <c r="I33" s="16">
         <v>32</v>
       </c>
     </row>
     <row r="34" ht="19.8" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="14">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14">
+        <v>4</v>
+      </c>
+      <c r="F34" s="14">
+        <v>5</v>
+      </c>
+      <c r="G34" s="15">
+        <v>7</v>
+      </c>
+      <c r="H34" s="11">
+        <v>30</v>
+      </c>
+      <c r="I34" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" ht="19.8" customHeight="1">
+      <c r="A35" t="s" s="6">
         <v>55</v>
       </c>
-      <c r="B34" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B35" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C35" s="13">
+        <v>6</v>
+      </c>
+      <c r="D35" s="14">
+        <v>6</v>
+      </c>
+      <c r="E35" s="14">
+        <v>6</v>
+      </c>
+      <c r="F35" s="14">
+        <v>5</v>
+      </c>
+      <c r="G35" s="15">
+        <v>7</v>
+      </c>
+      <c r="H35" s="11">
+        <v>30</v>
+      </c>
+      <c r="I35" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" ht="19.8" customHeight="1">
+      <c r="A36" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C36" s="13">
+        <v>7</v>
+      </c>
+      <c r="D36" s="14">
+        <v>10</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2</v>
+      </c>
+      <c r="G36" s="15">
+        <v>5</v>
+      </c>
+      <c r="H36" s="11">
+        <v>27</v>
+      </c>
+      <c r="I36" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" ht="19.8" customHeight="1">
+      <c r="A37" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C37" s="13">
         <v>4</v>
       </c>
-      <c r="D34" s="15">
-        <v>10</v>
-      </c>
-      <c r="E34" s="15">
-        <v>4</v>
-      </c>
-      <c r="F34" s="15">
-        <v>5</v>
-      </c>
-      <c r="G34" s="15">
-        <v>7</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="12">
-        <v>30</v>
-      </c>
-      <c r="J34" s="17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" ht="19.8" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="C35" s="14">
-        <v>6</v>
-      </c>
-      <c r="D35" s="15">
-        <v>6</v>
-      </c>
-      <c r="E35" s="15">
-        <v>6</v>
-      </c>
-      <c r="F35" s="15">
-        <v>5</v>
-      </c>
-      <c r="G35" s="15">
-        <v>7</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="12">
-        <v>30</v>
-      </c>
-      <c r="J35" s="17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" ht="19.8" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="C36" s="14">
-        <v>7</v>
-      </c>
-      <c r="D36" s="15">
-        <v>10</v>
-      </c>
-      <c r="E36" s="15">
-        <v>3</v>
-      </c>
-      <c r="F36" s="15">
+      <c r="D37" s="14">
+        <v>8</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5</v>
+      </c>
+      <c r="F37" s="14">
         <v>2</v>
       </c>
-      <c r="G36" s="15">
-        <v>5</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="12">
-        <v>27</v>
-      </c>
-      <c r="J36" s="17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" ht="19.8" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="G37" s="15">
+        <v>5</v>
+      </c>
+      <c r="H37" s="11">
+        <v>24</v>
+      </c>
+      <c r="I37" s="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="34.8" customHeight="1">
+      <c r="A38" t="s" s="17">
         <v>60</v>
       </c>
-      <c r="B37" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="C37" s="14">
-        <v>4</v>
-      </c>
-      <c r="D37" s="15">
-        <v>8</v>
-      </c>
-      <c r="E37" s="15">
-        <v>5</v>
-      </c>
-      <c r="F37" s="15">
+      <c r="B38" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="C38" s="13">
+        <v>5</v>
+      </c>
+      <c r="D38" s="14">
+        <v>5</v>
+      </c>
+      <c r="E38" s="14">
         <v>2</v>
       </c>
-      <c r="G37" s="15">
-        <v>5</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="12">
-        <v>24</v>
-      </c>
-      <c r="J37" s="17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" ht="34.8" customHeight="1">
-      <c r="A38" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="C38" s="14">
-        <v>5</v>
-      </c>
-      <c r="D38" s="15">
-        <v>5</v>
-      </c>
-      <c r="E38" s="15">
-        <v>2</v>
-      </c>
-      <c r="F38" s="15">
+      <c r="F38" s="14">
         <v>3</v>
       </c>
       <c r="G38" s="15">
         <v>9</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="12">
+      <c r="H38" s="11">
         <v>24</v>
       </c>
-      <c r="J38" s="17">
+      <c r="I38" s="16">
         <v>36</v>
       </c>
     </row>
     <row r="39" ht="19.8" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="B39" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="C39" s="14">
-        <v>5</v>
-      </c>
-      <c r="D39" s="15">
-        <v>7</v>
-      </c>
-      <c r="E39" s="15">
+      <c r="C39" s="13">
+        <v>5</v>
+      </c>
+      <c r="D39" s="14">
+        <v>7</v>
+      </c>
+      <c r="E39" s="14">
         <v>2</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="14">
         <v>3</v>
       </c>
       <c r="G39" s="15">
         <v>6</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="12">
+      <c r="H39" s="11">
         <v>23</v>
       </c>
-      <c r="J39" s="17">
+      <c r="I39" s="16">
         <v>38</v>
       </c>
     </row>
     <row r="40" ht="19.8" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C40" s="13">
+        <v>3</v>
+      </c>
+      <c r="D40" s="14">
+        <v>9</v>
+      </c>
+      <c r="E40" s="14">
+        <v>2</v>
+      </c>
+      <c r="F40" s="14">
+        <v>3</v>
+      </c>
+      <c r="G40" s="15">
+        <v>5</v>
+      </c>
+      <c r="H40" s="11">
+        <v>22</v>
+      </c>
+      <c r="I40" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" ht="19.8" customHeight="1">
+      <c r="A41" t="s" s="6">
         <v>65</v>
       </c>
-      <c r="B40" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="C40" s="14">
-        <v>3</v>
-      </c>
-      <c r="D40" s="15">
+      <c r="B41" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2</v>
+      </c>
+      <c r="D41" s="19">
         <v>9</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="19">
         <v>2</v>
       </c>
-      <c r="F40" s="15">
-        <v>3</v>
-      </c>
-      <c r="G40" s="15">
-        <v>5</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="12">
-        <v>22</v>
-      </c>
-      <c r="J40" s="17">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" ht="19.8" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C41" s="20">
-        <v>2</v>
-      </c>
-      <c r="D41" s="21">
-        <v>9</v>
-      </c>
-      <c r="E41" s="21">
-        <v>2</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="F41" s="19">
         <v>1</v>
       </c>
-      <c r="G41" s="21">
-        <v>5</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="12">
+      <c r="G41" s="20">
+        <v>5</v>
+      </c>
+      <c r="H41" s="11">
         <v>19</v>
       </c>
-      <c r="J41" s="23">
+      <c r="I41" s="21">
         <v>40</v>
       </c>
     </row>
